--- a/output/mr.xlsx
+++ b/output/mr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,19 +471,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BAV21A0I1C</t>
+          <t>BAV23A0I1C</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 600, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -497,16 +497,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BAV21A0I1C</t>
+          <t>BAV23A0F1C</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>BALL VALVE FL, FB, LP, TRUNNION BALL, API 608, A216 GR.WCB, CL 600, RF, B16.5, A105N + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, SEAT RINGS A105N + ENP, API 607, GO</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -575,19 +575,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CLV24F0B2B</t>
+          <t>CKV23A0B2B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIFT CHECK VALVE SW, API 602, A105, CL 800, INST HORIZ/VERT, SW, B16.11, BOLTED COVER, SPW SS304/GRAPH, PISTON TYPE OBTURATOR, TRIM #8</t>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 600, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -601,19 +601,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CKV21A0B2B</t>
+          <t>MFV21A0I2I</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -627,19 +627,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MFV21A0I2I</t>
+          <t>MFV23A0I2I</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 600, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH, SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -653,21 +653,73 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GLV26A0B2B</t>
+          <t>GAV24F0B2B</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GLOBE VALVE FL, API 623, A216 GR.WCB, CL 1500, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PARABOLIC DISC, STEM OS&amp;Y/RSRO, HO</t>
+          <t>GATE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GAV24F0B2B</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>GATE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>1</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GLV23A0B2B</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>GLOBE VALVE FL, API 623, A216 GR.WCB, CL 600, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PARABOLIC DISC, STEM OS&amp;Y/RSRO, HO</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>e.a</t>
         </is>

--- a/output/mr.xlsx
+++ b/output/mr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,19 +471,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BAV23A0I1C</t>
+          <t>BAV21A0I1C</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 600, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -497,19 +497,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BAV23A0F1C</t>
+          <t>BAV24G0I1C</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, TRUNNION BALL, API 608, A216 GR.WCB, CL 600, RF, B16.5, A105N + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, SEAT RINGS A105N + ENP, API 607, GO</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>0.75</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -549,19 +549,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>BAV26G0I1C</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, B16.34, A105, CL 1500, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SEAT RINGS NYLON, API 607, LO</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -575,19 +575,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CKV23A0B2B</t>
+          <t>BAV26G0I1C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 600, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, B16.34, A105, CL 1500, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SEAT RINGS NYLON, API 607, LO</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -601,19 +601,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MFV21A0I2I</t>
+          <t>BAV26A0I1C</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+          <t>BALL VALVE FL, FB, LP, TRUNNION BALL, API 6D, A216 GR.WCB, CL 1500, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, SEAT RINGS SS316, SEAT INSERTS NYLON, API 607, LO</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -627,19 +627,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MFV23A0I2I</t>
+          <t>CKV25A0B2B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 600, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH, SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 900, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
         </is>
       </c>
       <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
         <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -653,19 +653,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GAV24F0B2B</t>
+          <t>MFV21A0I2I</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GATE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -679,19 +679,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GAV24F0B2B</t>
+          <t>MFV26A0I2I</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GATE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 1500, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS04/GRAPH, PKG GRAPH, SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -705,21 +705,73 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GLV23A0B2B</t>
+          <t>GAV21A0B2B</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GLOBE VALVE FL, API 623, A216 GR.WCB, CL 600, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PARABOLIC DISC, STEM OS&amp;Y/RSRO, HO</t>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GAV25A0B2B</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 900, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GLV26F0B2B</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>GLOBE VALVE SW, API 602, API 598, A105, CL 1500, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PLUG DISC, STEM OS&amp;Y/RSRO, HO</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>e.a</t>
         </is>

--- a/output/mr.xlsx
+++ b/output/mr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,16 +471,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BAV21A0I1C</t>
+          <t>CKV413C3J2G</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -497,19 +497,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>GAV413C3J2G</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.75</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -523,19 +523,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>GAV413C3J2G</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -549,19 +549,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BAV26G0I1C</t>
+          <t>GAV413C3J2G</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, B16.34, A105, CL 1500, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SEAT RINGS NYLON, API 607, LO</t>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -575,19 +575,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BAV26G0I1C</t>
+          <t>GAV41H4J2G</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, B16.34, A105, CL 1500, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SEAT RINGS NYLON, API 607, LO</t>
+          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -601,177 +601,21 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BAV26A0I1C</t>
+          <t>GLV415J4J2G</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, TRUNNION BALL, API 6D, A216 GR.WCB, CL 1500, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, SEAT RINGS SS316, SEAT INSERTS NYLON, API 607, LO</t>
+          <t>ANGLE HOSE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREW-IN BONNET, RENEWABLE DISC, PKG NON ASBESTOS, DISC&amp;STEM BRONZE, RISING STEM, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CKV25A0B2B</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 900, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MFV21A0I2I</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MFV26A0I2I</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 1500, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS04/GRAPH, PKG GRAPH, SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>GAV21A0B2B</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>GAV25A0B2B</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 900, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>6</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>GLV26F0B2B</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>GLOBE VALVE SW, API 602, API 598, A105, CL 1500, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PLUG DISC, STEM OS&amp;Y/RSRO, HO</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4</v>
-      </c>
-      <c r="F13" t="inlineStr">
         <is>
           <t>e.a</t>
         </is>

--- a/output/mr.xlsx
+++ b/output/mr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -497,19 +497,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GAV413C3J2G</t>
+          <t>CKV413C3J2G</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+          <t>SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -575,19 +575,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GAV41H4J2G</t>
+          <t>GAV413C3J2G</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -601,21 +601,151 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GLV415J4J2G</t>
+          <t>GAV413C3J2G</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ANGLE HOSE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREW-IN BONNET, RENEWABLE DISC, PKG NON ASBESTOS, DISC&amp;STEM BRONZE, RISING STEM, HO, UL LISTED/FM APPROVED</t>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GAV413C3J2G</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GAV41H4J2G</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GAV41H4J2G</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GAV41H4J2G</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GAV415J4J2G</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>HOSE GATE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREWED BONNET, PKG NON ASBESTOS, SOLID WEDGE, WEDGE B62, SEAT&amp;STEM BRONZE, NON RISING STEM, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>2.5</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E12" t="n">
         <v>4</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>e.a</t>
         </is>

--- a/output/mr.xlsx
+++ b/output/mr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,292 +465,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CKV413C3J2G</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CKV413C3J2G</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GAV413C3J2G</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GAV413C3J2G</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>GAV413C3J2G</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>GAV413C3J2G</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>14</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>GAV413C3J2G</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>8</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>GAV41H4J2G</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>GAV41H4J2G</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>GAV41H4J2G</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>GAV415J4J2G</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>HOSE GATE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREWED BONNET, PKG NON ASBESTOS, SOLID WEDGE, WEDGE B62, SEAT&amp;STEM BRONZE, NON RISING STEM, HO, UL LISTED/FM APPROVED</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/mr.xlsx
+++ b/output/mr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>FIRST_SIZE_NUMBER</t>
+          <t>NOMINAL_SIZE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -462,6 +462,361 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>UNITS</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BAV21A0F1C</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BAV21A0F1C</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>CSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BAV21A0F1C</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BAV21A0F1C</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CSC</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BAV24G0I1C</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CKV21A0B2B</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CLV24F0B2B</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LIFT CHECK VALVE SW, API 602, A105, CL 800, INST HORIZ/VERT, SW, B16.11, BOLTED COVER, SPW SS304/GRAPH, PISTON TYPE OBTURATOR, TRIM #8</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MFV21A0I2I</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MFV21A0I2I</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>CSC</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MFV21A0I2I</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>CSO</t>
         </is>
       </c>
     </row>

--- a/output/mr.xlsx
+++ b/output/mr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,17 +476,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BAV21A0F1C</t>
+          <t>CKV413C3J2G</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -511,22 +511,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BAV21A0F1C</t>
+          <t>GAV413C3J2G</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CSO</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -546,17 +546,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BAV21A0F1C</t>
+          <t>GAV413C3J2G</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -581,22 +581,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BAV21A0F1C</t>
+          <t>GAV41H4J2G</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CSC</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -616,22 +616,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>GLV415J4J2G</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>ANGLE HOSE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREW-IN BONNET, RENEWABLE DISC, PKG NON ASBESTOS, DISC&amp;STEM BRONZE, RISING STEM, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,182 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CSO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CKV21A0B2B</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
           <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CLV24F0B2B</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>LIFT CHECK VALVE SW, API 602, A105, CL 800, INST HORIZ/VERT, SW, B16.11, BOLTED COVER, SPW SS304/GRAPH, PISTON TYPE OBTURATOR, TRIM #8</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MFV21A0I2I</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MFV21A0I2I</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>CSC</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MFV21A0I2I</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>CSO</t>
         </is>
       </c>
     </row>

--- a/output/mr.xlsx
+++ b/output/mr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CKV413C3J2G</t>
+          <t>BAV24G0I1C</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -511,22 +511,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GAV413C3J2G</t>
+          <t>BAV24G0I1C</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -535,111 +535,6 @@
         </is>
       </c>
       <c r="G3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GAV413C3J2G</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GAV41H4J2G</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>GLV415J4J2G</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ANGLE HOSE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREW-IN BONNET, RENEWABLE DISC, PKG NON ASBESTOS, DISC&amp;STEM BRONZE, RISING STEM, HO, UL LISTED/FM APPROVED</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/output/mr.xlsx
+++ b/output/mr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,17 +476,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>BAV21A0F1C</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -511,30 +511,520 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>BAV21A0F1C</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BAV21A0I1C</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>7,00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>BAV24G0I1C</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BAV24G0I1C</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BAV24G0I1C</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>1,00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5,00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BAV24G0I1C</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>CSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CKV21A0B2B</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CKV21A0B2B</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CKV21A0B2B</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24,00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GAV21A0B2B</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GAV21A0B2B</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>CSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GAV21A0B2B</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24,00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GAV21A0B2B</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24,00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>CSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GLV21A0B2B</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>GLOBE VALVE FL, API 623, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PARABOLIC DISC, STEM OS&amp;Y/RSRO, HO</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GLV21A0B2B</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>GLOBE VALVE FL, API 623, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PARABOLIC DISC, STEM OS&amp;Y/RSRO, HO</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/output/mr.xlsx
+++ b/output/mr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>CKV413C3J2G</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -511,30 +511,485 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>CKV413C3J2G</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GAV413C3J2G</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>1,00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5,00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GAV413C3J2G</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7,00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GAV413C3J2G</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7,00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GAV413C3J2G</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GAV413C3J2G</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GAV413C3J2G</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GAV413C3J2G</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GAV41H4J2G</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>36,00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GAV41H4J2G</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>7,00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GLV415J4J2G</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ANGLE HOSE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREW-IN BONNET, RENEWABLE DISC, PKG NON ASBESTOS, DISC&amp;STEM BRONZE, RISING STEM, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GLV41H4J2G</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>GLOBE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, SWIVEL PLUG DISC, STEM IS/RSRO, HO, UL LISTED</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GLV41H4J2G</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>GLOBE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, SWIVEL PLUG DISC, STEM IS/RSRO, HO, UL LISTED</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GLV41H4J2G</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>GLOBE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, SWIVEL PLUG DISC, STEM IS/RSRO, HO, UL LISTED</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>47,00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/output/mr.xlsx
+++ b/output/mr.xlsx
@@ -476,22 +476,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CKV413C3J2G</t>
+          <t>BAV21A0F1C</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED</t>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -511,22 +511,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CKV413C3J2G</t>
+          <t>BAV21A0F1C</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED</t>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -546,12 +546,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GAV413C3J2G</t>
+          <t>BAV21A0I1C</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -581,12 +581,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GAV413C3J2G</t>
+          <t>BAV21A0I1C</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>19,00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -616,22 +616,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GAV413C3J2G</t>
+          <t>BAV24G0I1C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,22 +651,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GAV413C3J2G</t>
+          <t>BAV24G0I1C</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -686,22 +686,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GAV413C3J2G</t>
+          <t>BAV24G0I1C</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -721,22 +721,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GAV413C3J2G</t>
+          <t>CKV21A0B2B</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -756,22 +756,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GAV413C3J2G</t>
+          <t>CKV21A0B2B</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -791,22 +791,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GAV41H4J2G</t>
+          <t>GAV21A0B2B</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>36,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -826,22 +826,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GAV41H4J2G</t>
+          <t>GAV21A0B2B</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -861,22 +861,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GLV415J4J2G</t>
+          <t>GAV21A0B2B</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ANGLE HOSE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREW-IN BONNET, RENEWABLE DISC, PKG NON ASBESTOS, DISC&amp;STEM BRONZE, RISING STEM, HO, UL LISTED/FM APPROVED</t>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>11,00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -896,22 +896,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GLV41H4J2G</t>
+          <t>GAV21A0B2B</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GLOBE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, SWIVEL PLUG DISC, STEM IS/RSRO, HO, UL LISTED</t>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -931,22 +931,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GLV41H4J2G</t>
+          <t>GLV24F0B2B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GLOBE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, SWIVEL PLUG DISC, STEM IS/RSRO, HO, UL LISTED</t>
+          <t>GLOBE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PLUG DISC, STEM OS&amp;Y/RSRO, HO</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -966,22 +966,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GLV41H4J2G</t>
+          <t>GLV24F0B2B</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GLOBE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, SWIVEL PLUG DISC, STEM IS/RSRO, HO, UL LISTED</t>
+          <t>GLOBE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PLUG DISC, STEM OS&amp;Y/RSRO, HO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>47,00</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">

--- a/output/mr.xlsx
+++ b/output/mr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BAV21A0F1C</t>
+          <t>BAV24G0I1C</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -511,22 +511,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BAV21A0F1C</t>
+          <t>BAV24G0I1C</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CSO</t>
         </is>
       </c>
     </row>
@@ -546,17 +546,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BAV21A0I1C</t>
+          <t>BAV24G0I1C</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -581,22 +581,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BAV21A0I1C</t>
+          <t>BAV24G0I1C</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>19,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CSO</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>CKV21A0B2B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -651,22 +651,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>CLV24F0B2B</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>LIFT CHECK VALVE SW, API 602, A105, CL 800, INST HORIZ/VERT, SW, B16.11, BOLTED COVER, SPW SS304/GRAPH, PISTON TYPE OBTURATOR, TRIM #8</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -686,22 +686,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>GAV24F0B2B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>GATE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -721,22 +721,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CKV21A0B2B</t>
+          <t>MFV21A0I2I</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -745,251 +745,6 @@
         </is>
       </c>
       <c r="G9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CKV21A0B2B</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>10,00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>GAV21A0B2B</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>GAV21A0B2B</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>GAV21A0B2B</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>10,00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>11,00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>GAV21A0B2B</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>14,00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>GLV24F0B2B</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>GLOBE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PLUG DISC, STEM OS&amp;Y/RSRO, HO</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>GLV24F0B2B</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>GLOBE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PLUG DISC, STEM OS&amp;Y/RSRO, HO</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>9,00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/output/mr.xlsx
+++ b/output/mr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BAV21A0F1C</t>
+          <t>BAV24G0I1C</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -511,22 +511,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BAV21A0F1C</t>
+          <t>BAV24G0I1C</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CSO</t>
         </is>
       </c>
     </row>
@@ -546,22 +546,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BAV21A0I1C</t>
+          <t>BAV24G0I1C</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CSO</t>
         </is>
       </c>
     </row>
@@ -616,22 +616,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>CKV21A0B2B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CSO</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -651,17 +651,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>CLV24F0B2B</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>LIFT CHECK VALVE SW, API 602, A105, CL 800, INST HORIZ/VERT, SW, B16.11, BOLTED COVER, SPW SS304/GRAPH, PISTON TYPE OBTURATOR, TRIM #8</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>GAV24F0B2B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>GATE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CSO</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -721,22 +721,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CKV21A0B2B</t>
+          <t>MFV21A0I2I</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -745,286 +745,6 @@
         </is>
       </c>
       <c r="G9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CKV21A0B2B</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>10,00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CKV21A0B2B</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>24,00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>GAV21A0B2B</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>GAV21A0B2B</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>CSO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>GAV21A0B2B</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>24,00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>GAV21A0B2B</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>24,00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>CSO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>GLV21A0B2B</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>GLOBE VALVE FL, API 623, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PARABOLIC DISC, STEM OS&amp;Y/RSRO, HO</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>GLV21A0B2B</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>GLOBE VALVE FL, API 623, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PARABOLIC DISC, STEM OS&amp;Y/RSRO, HO</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/output/mr.xlsx
+++ b/output/mr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BAV21A0F1C</t>
+          <t>BAV24G0I1C</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -511,22 +511,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BAV21A0F1C</t>
+          <t>BAV24G0I1C</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CSO</t>
         </is>
       </c>
     </row>
@@ -546,22 +546,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BAV21A0I1C</t>
+          <t>BAV24G0I1C</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -581,17 +581,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BAV21A0I1C</t>
+          <t>BAV24G0I1C</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CSO</t>
         </is>
       </c>
     </row>
@@ -616,22 +616,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>CKV22A0B2B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 300, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,22 +651,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>GAV22A0B2B</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 300, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CSC</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -686,22 +686,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>MFV22A0I2I</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 300, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -710,286 +710,6 @@
         </is>
       </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>BAV24G0I1C</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CKV21A0B2B</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CKV21A0B2B</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CKV22A0B2B</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 300, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CLV24F0B2B</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>LIFT CHECK VALVE SW, API 602, A105, CL 800, INST HORIZ/VERT, SW, B16.11, BOLTED COVER, SPW SS304/GRAPH, PISTON TYPE OBTURATOR, TRIM #8</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>GAV21A0B2B</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>GAV21A0B2B</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>MFV21A0I2I</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>7,00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/output/mr.xlsx
+++ b/output/mr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,147 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>BAV24G0I1C</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
           <t>CSO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CKV22A0B2B</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 300, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10,00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>GAV22A0B2B</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 300, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10,00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MFV22A0I2I</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 300, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>

--- a/output/mr.xlsx
+++ b/output/mr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,30 +441,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Catalogacion</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>CODE</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>NOMINAL_SIZE</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>QTY</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>UNITS</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>NOTE</t>
         </is>
@@ -476,30 +481,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>BAV22A0F1C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>BALL VALVE FL, RB, LP, TRUNNION BALL, API 608, A216 GR WCB, CL 300, RF, B16.5, A105N + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, SEAT RINGS A105N + ENP, API 607, GO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>e.a</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -511,32 +521,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>BAV24G0I1C</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>e.a</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>CSO</t>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -546,32 +561,197 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>BAV24G0I1C</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BAV24G0I1C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>1,00</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BAV24G0I1C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>2,00</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>e.a</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>CSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CKV22A0B2B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR WCB, CL 300, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>GAV22A0B2B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 300, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/output/mr.xlsx
+++ b/output/mr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,22 +486,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BAV22A0F1C</t>
+          <t>BAV21A0F1C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, RB, LP, TRUNNION BALL, API 608, A216 GR WCB, CL 300, RF, B16.5, A105N + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, SEAT RINGS A105N + ENP, API 607, GO</t>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -526,22 +526,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>BAV21A0I1C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CSO</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -606,22 +606,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>CKV21A0B2B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -646,22 +646,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>CKV21A0B2B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CSO</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -686,22 +686,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CKV22A0B2B</t>
+          <t>CKV21A0B2B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR WCB, CL 300, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -726,30 +726,470 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GAV22A0B2B</t>
+          <t>CKV21A0B2B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 300, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>GAV21A0B2B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>GAV21A0B2B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>GAV21A0B2B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>GAV21A0B2B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>14,00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>18,00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>GAV21A0B2B</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>16,00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9,00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>GAV413C3J2G</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1,00</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>GAV413C3J2G</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>GAV413C3J2G</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>14,00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>GAV413C3J2G</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>16,00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>GAV415J4J2G</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>HOSE GATE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPTxNH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREWED BONNET, PKG NON ASBESTOS, SOLID WEDGE, WEDGE B62, SEAT&amp;STEM BRONZE, NON RISING STEM, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>GLV415J4J2G</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ANGLE HOSE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPTxNH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREW-IN BONNET, RENEWABLE DISC, PKG NON ASBESTOS, DISC&amp;STEM BRONZE, RISING STEM, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>24,00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/output/mr.xlsx
+++ b/output/mr.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>48,00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">

--- a/output/mr.xlsx
+++ b/output/mr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -606,22 +606,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CKV21A0B2B</t>
+          <t>BAV24G0I1C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CSO</t>
         </is>
       </c>
     </row>
@@ -656,12 +656,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -736,12 +736,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -766,17 +766,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GAV21A0B2B</t>
+          <t>CKV21A0B2B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -891,17 +891,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -931,17 +931,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CSO</t>
         </is>
       </c>
     </row>
@@ -966,22 +966,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GAV413C3J2G</t>
+          <t>GAV21A0B2B</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1006,22 +1006,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GAV413C3J2G</t>
+          <t>GAV21A0B2B</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1046,22 +1046,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GAV413C3J2G</t>
+          <t>GAV21A0B2B</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1126,22 +1126,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GAV415J4J2G</t>
+          <t>GAV413C3J2G</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HOSE GATE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPTxNH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREWED BONNET, PKG NON ASBESTOS, SOLID WEDGE, WEDGE B62, SEAT&amp;STEM BRONZE, NON RISING STEM, HO, UL LISTED/FM APPROVED</t>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1166,30 +1166,230 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>GAV413C3J2G</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>GAV413C3J2G</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>GAV413C3J2G</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>14,00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>GAV413C3J2G</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>16,00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>GAV415J4J2G</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>HOSE GATE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPTxNH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREWED BONNET, PKG NON ASBESTOS, SOLID WEDGE, WEDGE B62, SEAT&amp;STEM BRONZE, NON RISING STEM, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>GLV415J4J2G</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>ANGLE HOSE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPTxNH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREW-IN BONNET, RENEWABLE DISC, PKG NON ASBESTOS, DISC&amp;STEM BRONZE, RISING STEM, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2,5</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>48,00</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>24,00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
